--- a/biology/Botanique/Déforestation_en_Russie/Déforestation_en_Russie.xlsx
+++ b/biology/Botanique/Déforestation_en_Russie/Déforestation_en_Russie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Russie</t>
+          <t>Déforestation_en_Russie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La déforestation en Russie concerne les forêts parmi les plus étendues du monde, qui couvrent 70 % du territoire de la fédération de Russie et représentent 22 % de la forêt mondiale. La Russie a perdu à elle seule plus de forêts que tous les autres pays depuis le début du XXIe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Russie</t>
+          <t>Déforestation_en_Russie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des bucherons nord-coréens ont été embauchés depuis les années 1950 dans des camps de déforestation des forêts de l'extrême-orient russe ; il y a eu un accord en 1966 à ce sujet entre Léonid Brejnev et Kim Il-sung[1].
-D'après une carte globale réalisée par des chercheurs du Maryland, la Russie est le pays du monde où la forêt a le plus régressé, elle a diminué de 365 000 km2 entre 2000 et 2012[2]. C'est surtout en Iakoutie et dans la région de la Léna que les forêts ont régressé.
-Le gouvernement russe envisageait en 2003 de vendre les 843 millions d'hectares de forêt à des exploitants privés[3].
-Ponctuellement, des associations se mobilisent pour essayer d'empêcher les destructions, par exemple pour la forêt de Khimki à proximité de Moscou[4].
-D'après un rapport du  World Resources Institute, la forêt russe diminue de l'équivalent de la superficie de la Suisse chaque année entre 2011 et 2013[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des bucherons nord-coréens ont été embauchés depuis les années 1950 dans des camps de déforestation des forêts de l'extrême-orient russe ; il y a eu un accord en 1966 à ce sujet entre Léonid Brejnev et Kim Il-sung.
+D'après une carte globale réalisée par des chercheurs du Maryland, la Russie est le pays du monde où la forêt a le plus régressé, elle a diminué de 365 000 km2 entre 2000 et 2012. C'est surtout en Iakoutie et dans la région de la Léna que les forêts ont régressé.
+Le gouvernement russe envisageait en 2003 de vendre les 843 millions d'hectares de forêt à des exploitants privés.
+Ponctuellement, des associations se mobilisent pour essayer d'empêcher les destructions, par exemple pour la forêt de Khimki à proximité de Moscou.
+D'après un rapport du  World Resources Institute, la forêt russe diminue de l'équivalent de la superficie de la Suisse chaque année entre 2011 et 2013.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Russie</t>
+          <t>Déforestation_en_Russie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Causes et conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les causes de déforestation en Russie figurent les incendies de forêt[6] et de tourbières, mais aussi l'exploitation illégale[7].
-La destruction de la forêt sibérienne menace plusieurs espèces en voie de disparition comme le léopard d’Extrême-Orient et le tigre de Sibérie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les causes de déforestation en Russie figurent les incendies de forêt et de tourbières, mais aussi l'exploitation illégale.
+La destruction de la forêt sibérienne menace plusieurs espèces en voie de disparition comme le léopard d’Extrême-Orient et le tigre de Sibérie.
 </t>
         </is>
       </c>
